--- a/download_list.xlsx
+++ b/download_list.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -454,7 +454,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://imdb-video.media-imdb.com/vi1211810841/1434659529640-260ouz-1678670562839.mp4?Expires=1685599313&amp;Signature=qYAV84OrMx0XFPLLYYUcItxaMhv-TRsyj-g9u2OeUES90cGn4MVtRIaIU7YJm1OUhabl-eih-eVle6~G-~yxaUuL9B3ZSBlthzHiynJd4Rcnw7gkyzWaLP5nS1Gxi8HNcSmVPt2KVMCV5IQvMpO9fL9U3UwiaCY7nY5wDnMDNsBG9Nq2IffaG13CnxxOOuaZTY0c7e4NXNTal71Gvy3nzBXm0DWRAMFtcZfi6m8dIQbcnjJsDxnIkySIOU1dFB~EwcqtSXqGc4JfiJLt1RiiprdtNTxG1~UkwiUvX5eCoy9PFw30GFhBdfYMN~UuMdjh3mD4scRAvMLJn2sPgX2pgg__&amp;Key-Pair-Id=APKAIFLZBVQZ24NQH3KA</t>
+          <t>https://imdb-video.media-imdb.com/vi1211810841/1434659529640-260ouz-1678670562839.mp4?Expires=1685616719&amp;Signature=gVfa8QTtBvtw2IQsfUS14gjN23SkOPmT7R7wf5y7OaI4dOHenHo8w1pAcCYGcg5qTJijgBVxNRUev695c-5f2~v6plvSWqr-L4Yu1iD3FwlysM8UKcSdGsXKjcfwywEFC-jNrkyAcTq9OZ0SGFYGp-io0WJbljFHN-re9MnR37WJGlOaLDCa4qeqmUtky3pJJoEvY2wLCqs7ZLDeeDs6AFC-Dd-ejAVtEbfEF2LI9HRnWJu4z-v6I4Z5PG5AGjA2~t8aYe6YbiF1Mc1JTzBNZ1mIQOs1JO~ktYvE0Pn2Ex4FbhDmUxhOMkScMOXGzRWBSMuhYbxyfDufxhKIgXg0Zw__&amp;Key-Pair-Id=APKAIFLZBVQZ24NQH3KA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>David Magee</t>
         </is>
       </c>
     </row>
@@ -466,7 +471,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://imdb-video.media-imdb.com/vi1610925081/1434659529640-260ouz-1680875129724.mp4?Expires=1685599316&amp;Signature=lG9nVdV7FYdAATRQhJsJR9W4emA5~lNKxV1aUpgno0yEMSwY0aE6V-WPTeCJ~WSk0fIMQ~6vk6P6vhOndxKIqFyxhR9MAkhOw60JnqwK6LRrx-ebI8efSKD5FOJlWRkqbf9aBj4lE3TtTTt-LnBNZIftNqG8fFInovBbAX6bkLS~rP7Gf-O41c~1Rs9V8kLwjeA6vI-frxAdNQ~Bb37BhBrRyy1u9MCqLdnUdwAazTlP5eoh9UiFh8pa-6asrJ1aB9hqsg6hD6aPp5ownJGSg9-8rBofOZ4rHfD-BZgVc-bmndh2ELN2yoRb01jDp7dYT655e90hEnM5FuaimtBSVQ__&amp;Key-Pair-Id=APKAIFLZBVQZ24NQH3KA</t>
+          <t>https://imdb-video.media-imdb.com/vi1610925081/1434659529640-260ouz-1680875129724.mp4?Expires=1685616722&amp;Signature=cCoi2H-8-aUP60xFEg3Dah6KQOvDnK0PrKcPMwPSqTVhGO8~5bROGnmAUXfFb~wx1eMsKnAlQWwfT7ocQz41ZKIWCjcQWpKHyDmr7n-87ToYqvOsTHXpEc~9nIrOFL2Qt7vAW18s6qXL3Y5CeAY6AQ1Xnya0rsyd6OmRXWAwu47dj~VOyDAQzkos5vnDtK8wpZNBuVzq5-K~GyRzWU~Mtv~-0w-JChvZixEHMLteP5gN3Fgkvjg8wG4C4UdA6m21qMpZNyA-5~eP7OOs3hWROAnTglqxLzMUQfsN-nt4j8Y-UGkNr6JEfaeiIutlV52AyFMZvH6~1vLetPoKmoKWcA__&amp;Key-Pair-Id=APKAIFLZBVQZ24NQH3KA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Jez Butterworth,John-Henry Butterworth,David Koepp</t>
         </is>
       </c>
     </row>
@@ -478,7 +488,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://imdb-video.media-imdb.com/vi1599390745/1434659529640-260ouz-1684332109001.mp4?Expires=1685599168&amp;Signature=BkkEFdJ9OlJouKURdK07XyA6wjnGnqJ6AP9m-acXDu5wAUBs1qhw1uYAATdlr0zvAKUFf0QVoVoSMbNT5SJ4~S7ATMmteu2OcmKEq7I7vsnuM13NMkdXAiLReP9137rLD~3voh7vldcCGG89hjDT4P5DRAtc2gQ4w-YnpH2baJ3DO5nZcbYZNuNiQZekgJZtRaPoYHcl8-Ksf9VDmzCRVVvyJ7g~HLTpWozWbvEfomqpCExzk2NWmCGRhE7EnDTseZQXzXnXeuoR4C18MydnuSI~wP-mY5~ewU3S8ziOz1ktvGmzIR57PsheEmqobXYE1zm5PDegeQj6nb8LZrforQ__&amp;Key-Pair-Id=APKAIFLZBVQZ24NQH3KA</t>
+          <t>https://imdb-video.media-imdb.com/vi1599390745/1434659529640-260ouz-1684332109001.mp4?Expires=1685616726&amp;Signature=QHd8PyHuNmzTAIilTPU9O0D0lR1CtxpO16Lm-0mYWviAG9pHqACBr2bChPwAGrejUllNFi0lVWSqMN4kYeKwcUoRHFHvj4JZxEFjha2sivkSeiVVQY5wg0ilsAt8TGb835CLQ~9tvZ~CnDoblxm-FMI8ePsMxmGA73ZsdlTLjdNyHWaB1PCEz2NZ0Evxl7prfH3aqhJMb1KgP0laTTSmlq76IQXK8Sjl3H-HwtiNNcvvzxo63V2Q1KVkom6avgkYigklodQly9QuaAB1tOLHo~iXGYEOcU0tKLbD2j~1sWMbPFAro7VC6mXTsEdyOiUt~sMdDquJ6NZZeNXI7ibFuw__&amp;Key-Pair-Id=APKAIFLZBVQZ24NQH3KA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bruce Geller,Erik Jendresen,Christopher McQuarrie</t>
         </is>
       </c>
     </row>
@@ -488,6 +503,16 @@
           <t>https://www.imdb.com/title/tt13651794/?ref_=adv_li_tt</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://imdb-video.media-imdb.com/vi2052375577/1434659529640-260ouz-1684336570181.mp4?Expires=1685616938&amp;Signature=K6tjNsQqukTIV1HmMujzzMXTcXZ~f6g~9dMWZ4AH4HJ2Mz34q0Chmr1iIz9kIc9kWAi2Q2wNIZ3YNfEtEX93yrya1XFk0pehNhaaqAupeA3gjRPKunXqAdWqrceC~mkAdNm50GjYacK5XtvLRkD1KMWhameL0Fd8kRyHt33lKwy6N5lHwUu8m9pcj672AaIAwWd7~veYth6r4x2AnpXDpkK-8BzXnXNhteG0DLGfcfX25NMYT9oFkivqc-YApc0~MgvU-Sjmdkr8eQfeDEAECu1sSIiYQXXoYgLu9p-S9rz29XgoMqe9kkTq8mffTTcZ81zcA1Nwq0nro0rgocseHQ__&amp;Key-Pair-Id=APKAIFLZBVQZ24NQH3KA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Samy Burch,Alex Mechanik</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -497,7 +522,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://imdb-video.media-imdb.com/vi1613808153/1434659529640-260ouz-1656941657492.mp4?Expires=1685599387&amp;Signature=J36UsrlogqBbo7Qrug9LHPeBDQirZui6Bg75rsQ1NTWHXBe6~aCJioIb~BeaZ7LUSNqVLZYRpOSBpzq4Fwh0eAZ1rFX4DWSvjHztaVDrfALlJmqBw2yTt--17ljrtOfjlZg64pMIzFllI5yutJ-mmWtOe9D8UWgrlTCtBtYrpF6CKoVNBaExxapT2S4YnfTmdLE6hgwuZIoisD1AQ4JayoRhv55GFZ1F0FcTYcH8co05RbEk4u3bPSilGqboFRqYO1aoyfFYUS31N7tCprW~ImfcPsYCPRFJJrsATls1xXBKgjXSZw6uG3OUW~GJptshUM4sBoBnQx3uyCqDHjxIaQ__&amp;Key-Pair-Id=APKAIFLZBVQZ24NQH3KA</t>
+          <t>https://imdb-video.media-imdb.com/vi1613808153/1434659529640-260ouz-1656941657492.mp4?Expires=1685617510&amp;Signature=mbmtSQkImOi6qjM-8FT2AR7gn0aZ-r7RPSJLpTKcLL5c764rkkTbkLo9v4f7BMAaVMJerfq9huRDTqWarQC~gR-BocvHsNS5LAim4vzxvNfwdXlQ2DSV8KkfG21Rbh3zwcu8SS6yZmM0x~~RurEoBDPsHa9JToi91wzO9uwKgEcZUpdwgJ2vvIuhgBUEcQRXZT4JhPNJ6HjFCrwQ2BsdkbidAdQ4pXYIKqR8Q-UwgK5ROZd3~5mBlVQcXs7~sD4jAT9D9MSA3tkE7ONXx44LAhkAJZG5-olO7dM9KDA~89J4QRLRsdg7D706ALWjfMzJVbds4fVCF13WJ8xhogrjQw__&amp;Key-Pair-Id=APKAIFLZBVQZ24NQH3KA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Taika Waititi,Jennifer Kaytin Robinson,Stan Lee</t>
         </is>
       </c>
     </row>
@@ -509,7 +539,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://imdb-video.media-imdb.com/vi486342937/1434659607842-pgv4ql-1564015481062.mp4?Expires=1685599390&amp;Signature=VfmLNwWt-A1GC9ogAD2N3a-Mh2PU831tFaXJ8RYuk3CnlnLLEqU~fVZLfHujGru1elM8InC5lyik6BnTeCE67IvLSxUUuxubX2wxTZC0Vbpebbbg9sYnU-XUb-1Z1UWtZKaAMozQl64Htwx-qTzzqwfQJ24PcP8Hruil68fFqkDm6LWolozCyCzoBnHI2U5NvykedmWHvAQ6TsRhA2CzYRY4vDK0nPHK6sm9XBAWrm993JkgJC0GNuzTSGkXiPP0Ch50znIHeXLue-n7LhgmAam8MMhzGEu~bgICKR86pjjtgsMmEdSBf0pi3yC9CsYkBI1mujfrpBZAeO9GXXLDcQ__&amp;Key-Pair-Id=APKAIFLZBVQZ24NQH3KA</t>
+          <t>https://imdb-video.media-imdb.com/vi486342937/1434659607842-pgv4ql-1564015481062.mp4?Expires=1685617571&amp;Signature=J~uw1aKFwWq2~16jvNHnbs0cgAlYQ0NPNCdQN30YB2VTmM~sDW9OZttnWwQyrm2Kp3xkPI-3D0P2aL0zIU9sxnyzsB66LoBoy~uFKvNXMrATxNQxvtYc20QYQAyjfkGq3TY-j1bAqDH3FxON3xD5DtsIiv4agRYLoY2iGRlI6SlQsvHCnN0Q-Q4oys~Z3O6ExZc1QTKDStmeELmuOv~47fFQIyewZvWM~EXvT2pzx1TL8zxWVf7utNHNaEwIP8ZTC-qzxwk-iOSAklq~1d0ksYyXfzaVRtLUs9BUeajfFZGdipJ5KTqWtQVjmWJi9lkRQ1UJxdnb1rd5N1ldSvGA4w__&amp;Key-Pair-Id=APKAIFLZBVQZ24NQH3KA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tina Turner,Kurt Loder,Kate Lanier</t>
         </is>
       </c>
     </row>
